--- a/biology/Médecine/Tubercule_pubien/Tubercule_pubien.xlsx
+++ b/biology/Médecine/Tubercule_pubien/Tubercule_pubien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le tubercule pubien (ou épine du pubis ou épine pubienne) est la saillie osseuse située à l'avant du corps du pubis. Il donne insertion au ligament inguinal.
@@ -512,11 +524,48 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule pubien peut être palpé sous la peau. Il sert de repère pour l'anesthésie locale du rameau génital du nerf génito-fémoral, qui se situe légèrement latéralement à celui-ci.
-Hernies
-Le tubercule pubien est un repère utile pour identifier l'origine d'une hernie abdominale. Une hernie inguinale se trouvera en position antéro-médiale au tubercule pubien, alors qu'une hernie fémorale se trouvera inféro-latérale au tubercule pubien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tubercule_pubien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_pubien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hernies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tubercule pubien est un repère utile pour identifier l'origine d'une hernie abdominale. Une hernie inguinale se trouvera en position antéro-médiale au tubercule pubien, alors qu'une hernie fémorale se trouvera inféro-latérale au tubercule pubien.
 </t>
         </is>
       </c>
